--- a/01_【09_JISA】別添2_合意と履行のトレースの内容.xlsx
+++ b/01_【09_JISA】別添2_合意と履行のトレースの内容.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\工業会証明書デジタル化コンソーシアム\70_成果物の作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\工業会証明書デジタル化コンソーシアム\100_納入成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37343A93-AF04-465A-9365-1EE411096418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AA84CE-2F75-487D-9156-A8E4BF29A1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17490" windowHeight="9105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="720" windowWidth="19200" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="資料③-2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,23 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
-  <si>
-    <t>3.2（別添2）合理と履行のトレース内容</t>
-    <rPh sb="4" eb="6">
-      <t>ベッテン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゴウリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>リコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>課題の対象</t>
     <rPh sb="0" eb="2">
@@ -62,7 +45,7 @@
     <rPh sb="3" eb="5">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>要検証な課題（データや相手方の検証）</t>
@@ -72,7 +55,7 @@
     <rPh sb="15" eb="17">
       <t>ケンショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>合意の主体</t>
@@ -98,7 +81,7 @@
   <si>
     <t>＜証明書申請者＞
 中小事業者</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -124,7 +107,7 @@
   </si>
   <si>
     <t>当UCでは申請上必要な書類・情報の受け渡し、「提示」、「受理」というプロセスがシナリオ上存在するが、それぞれ「提示をした」、「受理をした」というプロセスが完了したことを以て合意としている</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>合意した属性情報が受け渡しされている事</t>
@@ -145,7 +128,7 @@
 ➢ 合意の取り消し時
 ・ Holder側でVCの発行・提示の合意確認時に合意を取り消した場合、そのVCの取得・提示処理を行わない。
 ・ Issuer,Verifier側で合意を取り消す場合(提示されたVCの期限切れなど)はHolderにVCの取得・提示処理が失敗したことを通知する。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>＜証明書要求者＞
@@ -222,94 +205,27 @@
     <t>所轄の税務署は認定番号を以て、照会の応対などを行う。</t>
   </si>
   <si>
-    <t>■資料③-2</t>
+    <t>（別添２）合理と履行のトレースの内容</t>
     <rPh sb="1" eb="3">
-      <t>シリョウ</t>
+      <t>ベッテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データコントロール（要件1）</t>
-  </si>
-  <si>
-    <t>合意形成と合意履行のトレース(要件3,4)</t>
-  </si>
-  <si>
-    <t>（１）データの管理
-（誰が誰のデータをどのように管理するのか）</t>
-  </si>
-  <si>
-    <t>（２）データ管理者による選択的開示の可否・方法</t>
-  </si>
-  <si>
-    <t>（１）合意事項
-（誰が誰と何について合意をするのか）</t>
-  </si>
-  <si>
-    <t>（２）合意の条件
-（何を持って合意とするのか）</t>
-  </si>
-  <si>
-    <t>（３）トレースの方法
-（誰が・何を・どうやって）</t>
-  </si>
-  <si>
-    <t>（４）合意の取り消しの可否・方法</t>
-  </si>
-  <si>
-    <t>事業者回答</t>
-    <rPh sb="0" eb="3">
-      <t>ジギョウシャ</t>
+    <rPh sb="5" eb="7">
+      <t>ゴウリ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイトウ</t>
+    <rPh sb="8" eb="10">
+      <t>リコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">法人および従業員がWalletをセットアップする際、Wallet側での鍵生成及びDIDの生成を行う。以後の取引においては当該のDIDに紐づける形で属性（VC）の発行を受けたり提示することができる。 
-</t>
-  </si>
-  <si>
-    <t>現状当UCでは選択的開示を行うシナリオは想定していない</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>当UCでは申請上必要な書類・情報の受け渡し、「提示」、「受理」というプロセスがシナリオ上存在するが、それぞれ「提示をした」、「受理をした」というプロセスが完了したことを以て合意としている
-尚、中小事業者のVCの提示後のトレースについては、法人Wallet内のVCの発行・提示に係る記録をStorageに蓄積しトレース可能な状態にしている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>合意した属性情報や資格情報が受け渡しされている事</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>法人および従業員が利用するWallet内にVC発行や提示に関する記録を残し、閲覧することが出来るようにする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(前提)
-①リボーク -&gt; Issuerのみ（リボークに派生で）一方的に合意の取り消し可能
-②合意の取り消し-&gt; Holder, Issuer, Verifierのいずれも合意の取り消し可能
-(ご回答)
-①リボーク時
-Issuerは発行したVCをリボークすることができ、リボーク後、Holderは当該VCを以て新たな証明書の発行申請及び提示がIssuer,Verifierの検証によってできなくなります。
-また、既に申請や提示が行われているVCに関しては、リボークが発生した事を認知したVerifierの再検証により合意の取り消し状態となります。（既に申請や提示行われているVCに関しての一括処理の検証等のUI/UX等については継続検討必要と想定します）
-今後、リボーク発生起因として、Issuer起因、Holder起因やVerifier起因等でIsuuer対応によりリボークが発生するユースケースシナリオを検討して参ります。
-②合意の取り消し時
-合意確認時の取り消しにつきましては、
-・Holder側でVCの発行・提示の合意確認時に合意を取り消した場合、そのVCの取得・提示処理を行いません。
-・Issuer,Verifier側で合意を取り消す場合(提示されたVCの期限切れなど)はHolderにVCの取得・提示処理が失敗したことを通知します。
-なお、VC単体視点の設計においては、合意後にIssuer, Verifierが合意を取り消すことは想定しておりません。
-※ただし、実業務としては、全ての申請処理が完了した後での合意の取り消しがありえますので、前述のリボーク時のユースケース検討として継続検討してまいります。</t>
-    <phoneticPr fontId="2"/>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,42 +235,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック Light"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -409,36 +294,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -453,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -477,36 +338,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -549,141 +380,108 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,235 +763,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD64416C-BA2B-4E26-896F-9343B6B8EA3D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="51.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="43.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="12" customWidth="1"/>
-    <col min="10" max="10" width="61.125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="43.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1"/>
-    <row r="4" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="19"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="23" t="s">
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="19"/>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="23"/>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="19"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="23"/>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="63" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="19"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="23"/>
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="19"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="47.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="63">
-      <c r="A10" s="8"/>
-      <c r="B10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" s="13" customFormat="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:10" s="13" customFormat="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="23"/>
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1212,99 +1013,8 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="H11:H12"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.875" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="C3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="46.7" customHeight="1" thickBot="1">
-      <c r="C4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="409.5" customHeight="1" thickBot="1">
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>